--- a/Test_Unseen_dataset/Kenya data with all variables.xlsx
+++ b/Test_Unseen_dataset/Kenya data with all variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/redo-paper-newdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siddartha/Desktop/github/code/Test_Unseen_dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E51F923-FE79-1D48-B70A-9C1C5C6C307E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58F1529-8B97-FC47-8797-08B05A855974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{1F1CF6E2-BCD0-4E8D-8F0C-023A2980C357}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{1F1CF6E2-BCD0-4E8D-8F0C-023A2980C357}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +451,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,8 +462,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q503"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A484" zoomScale="269" workbookViewId="0">
-      <selection activeCell="B501" sqref="B501"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="K412" sqref="K412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20</v>
       </c>
@@ -627,7 +627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>20</v>
       </c>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>21</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>21</v>
       </c>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>21</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>22</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>22</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>22</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>22</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>22</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>22</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>22</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3701,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>23</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>23</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>23</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>23</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>23</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>23</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>23</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>23</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>23</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>23</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>23</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>23</v>
       </c>
@@ -4708,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>24</v>
       </c>
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>24</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>24</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>24</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>24</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>24</v>
       </c>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>24</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>24</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>25</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>25</v>
       </c>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>25</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>25</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>25</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>25</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>25</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>26</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>26</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>26</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>27</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>27</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>27</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>28</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>28</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>28</v>
       </c>
@@ -6987,7 +6987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>28</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>28</v>
       </c>
@@ -7199,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>29</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>29</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>29</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>29</v>
       </c>
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>29</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>29</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>30</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>30</v>
       </c>
@@ -7729,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>30</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>30</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>30</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>30</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>30</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>31</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>31</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>31</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>31</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>31</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>31</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>31</v>
       </c>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>31</v>
       </c>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>31</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>32</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>32</v>
       </c>
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>32</v>
       </c>
@@ -9584,7 +9584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>32</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>32</v>
       </c>
@@ -9690,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>32</v>
       </c>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>32</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>33</v>
       </c>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>33</v>
       </c>
@@ -10485,7 +10485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>33</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>33</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>34</v>
       </c>
@@ -10909,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>34</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>34</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>34</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>34</v>
       </c>
@@ -11121,7 +11121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>34</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>34</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>34</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>34</v>
       </c>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>34</v>
       </c>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>34</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>34</v>
       </c>
@@ -11651,7 +11651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>35</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>35</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>35</v>
       </c>
@@ -11810,7 +11810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>35</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>35</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>35</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>35</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>35</v>
       </c>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>35</v>
       </c>
@@ -12128,7 +12128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>35</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>35</v>
       </c>
@@ -12287,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>35</v>
       </c>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>36</v>
       </c>
@@ -12605,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>36</v>
       </c>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>36</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>36</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>36</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>36</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>36</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>36</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>36</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>37</v>
       </c>
@@ -13294,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>37</v>
       </c>
@@ -13347,7 +13347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>37</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>37</v>
       </c>
@@ -13453,7 +13453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>37</v>
       </c>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>37</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>37</v>
       </c>
@@ -13824,7 +13824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>38</v>
       </c>
@@ -13877,7 +13877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>38</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>38</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>38</v>
       </c>
@@ -14407,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>38</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>39</v>
       </c>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>39</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>39</v>
       </c>
@@ -14831,7 +14831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>40</v>
       </c>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>40</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>40</v>
       </c>
@@ -14990,7 +14990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>40</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>40</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>40</v>
       </c>
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>40</v>
       </c>
@@ -15202,7 +15202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>40</v>
       </c>
@@ -15255,7 +15255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>40</v>
       </c>
@@ -15308,7 +15308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>40</v>
       </c>
@@ -15361,7 +15361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>40</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>40</v>
       </c>
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>40</v>
       </c>
@@ -15573,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>40</v>
       </c>
@@ -15626,7 +15626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>40</v>
       </c>
@@ -15679,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>40</v>
       </c>
@@ -16315,7 +16315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>40</v>
       </c>
@@ -16368,7 +16368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>41</v>
       </c>
@@ -16421,7 +16421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>41</v>
       </c>
@@ -16474,7 +16474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>41</v>
       </c>
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>41</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>41</v>
       </c>
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>41</v>
       </c>
@@ -16686,7 +16686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>41</v>
       </c>
@@ -16739,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>41</v>
       </c>
@@ -16898,7 +16898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>41</v>
       </c>
@@ -17057,7 +17057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>42</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>42</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>42</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>42</v>
       </c>
@@ -17269,7 +17269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>42</v>
       </c>
@@ -17322,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>42</v>
       </c>
@@ -17375,7 +17375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>42</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>42</v>
       </c>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>43</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>43</v>
       </c>
@@ -17852,7 +17852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>43</v>
       </c>
@@ -17905,7 +17905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>43</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>43</v>
       </c>
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>43</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>43</v>
       </c>
@@ -18329,7 +18329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>44</v>
       </c>
@@ -18382,7 +18382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>44</v>
       </c>
@@ -18435,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>44</v>
       </c>
@@ -18488,7 +18488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>44</v>
       </c>
@@ -18594,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>44</v>
       </c>
@@ -18806,7 +18806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>44</v>
       </c>
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>45</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>45</v>
       </c>
@@ -19177,7 +19177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>45</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>45</v>
       </c>
@@ -19707,7 +19707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>46</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>46</v>
       </c>
@@ -19919,7 +19919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>46</v>
       </c>
@@ -20131,7 +20131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>46</v>
       </c>
@@ -20184,7 +20184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>46</v>
       </c>
@@ -20237,7 +20237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>47</v>
       </c>
@@ -20290,7 +20290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>47</v>
       </c>
@@ -20343,7 +20343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>47</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>47</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>47</v>
       </c>
@@ -20502,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>47</v>
       </c>
@@ -20661,7 +20661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>47</v>
       </c>
@@ -20767,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>47</v>
       </c>
@@ -20979,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>47</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>47</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>48</v>
       </c>
@@ -21191,7 +21191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>48</v>
       </c>
@@ -21244,7 +21244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>48</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>48</v>
       </c>
@@ -21509,7 +21509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>49</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>49</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>50</v>
       </c>
@@ -21827,7 +21827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>50</v>
       </c>
@@ -21880,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>50</v>
       </c>
@@ -21933,7 +21933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>50</v>
       </c>
@@ -22039,7 +22039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>50</v>
       </c>
@@ -22092,7 +22092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>50</v>
       </c>
@@ -22251,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>50</v>
       </c>
@@ -22304,7 +22304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>51</v>
       </c>
@@ -22357,7 +22357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>51</v>
       </c>
@@ -22410,7 +22410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>51</v>
       </c>
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>52</v>
       </c>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>52</v>
       </c>
@@ -22887,7 +22887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>52</v>
       </c>
@@ -22940,7 +22940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>52</v>
       </c>
@@ -22993,7 +22993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>52</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>52</v>
       </c>
@@ -23205,7 +23205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>52</v>
       </c>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>53</v>
       </c>
@@ -23523,7 +23523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>53</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>53</v>
       </c>
@@ -23947,7 +23947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>54</v>
       </c>
@@ -24000,7 +24000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>54</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>54</v>
       </c>
@@ -24106,7 +24106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>54</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>54</v>
       </c>
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>55</v>
       </c>
@@ -24583,7 +24583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>55</v>
       </c>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>55</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>55</v>
       </c>
@@ -25166,7 +25166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>56</v>
       </c>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>56</v>
       </c>
@@ -25325,7 +25325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>56</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>57</v>
       </c>
@@ -25537,7 +25537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>57</v>
       </c>
@@ -25590,7 +25590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>57</v>
       </c>
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>57</v>
       </c>
@@ -26014,7 +26014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>58</v>
       </c>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>58</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>59</v>
       </c>
@@ -26438,7 +26438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>59</v>
       </c>
@@ -26491,7 +26491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>59</v>
       </c>
@@ -26809,7 +26809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>60</v>
       </c>
@@ -26915,7 +26915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>60</v>
       </c>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>60</v>
       </c>
@@ -27129,14 +27129,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q503" xr:uid="{BC983B30-8127-454B-8713-043778706A04}">
-    <filterColumn colId="1">
+    <filterColumn colId="16">
       <filters>
-        <filter val="0"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q503">
-      <sortCondition ref="A1:A503"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
